--- a/dell/offline/C1WP2S2_config_report_conf_passed.xml_report.xlsx
+++ b/dell/offline/C1WP2S2_config_report_conf_passed.xml_report.xlsx
@@ -19,32 +19,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">"Service Tag" not equal golden setting "OS System Name" </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">"Enabled" not equal golden setting "Disabled" </t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B26" authorId="0">
       <text>
         <r>
@@ -58,19 +32,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B395" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">"255.255.255.0" not equal golden setting "255.255.224.0" </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -111,55 +72,55 @@
     <t>System.Embedded.1 LCD.1#Configuration</t>
   </si>
   <si>
+    <t>System.Embedded.1 LCD.1#vConsoleIndication</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 LCD.1#QualifierWatt</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 LCD.1#QualifierTemp</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ThermalConfig.1#CriticalEventGenerationInterval</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ThermalConfig.1#EventGenerationInterval</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ThermalSettings.1#ThermalProfile</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ThermalSettings.1#AirExhaustTemp</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ThermalSettings.1#FanSpeedOffset</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ThermalSettings.1#MinimumFanSpeed</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ThermalSettings.1#ThirdPartyPCIFanResponse</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ServerPwr.1#PowerCapSetting</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ServerPwr.1#PSRedPolicy</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ServerPwr.1#PSPFCEnabled</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ServerPwr.1#PSRapidOn</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ServerPwr.1#RapidOnPrimaryPSU</t>
+  </si>
+  <si>
+    <t>System.Embedded.1 ChassisPwrState.1#ChassisLEDState</t>
+  </si>
+  <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 LCD.1#vConsoleIndication</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 LCD.1#QualifierWatt</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 LCD.1#QualifierTemp</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ThermalConfig.1#CriticalEventGenerationInterval</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ThermalConfig.1#EventGenerationInterval</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ThermalSettings.1#ThermalProfile</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ThermalSettings.1#AirExhaustTemp</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ThermalSettings.1#FanSpeedOffset</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ThermalSettings.1#MinimumFanSpeed</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ThermalSettings.1#ThirdPartyPCIFanResponse</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ServerPwr.1#PowerCapSetting</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ServerPwr.1#PSRedPolicy</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ServerPwr.1#PSPFCEnabled</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ServerPwr.1#PSRapidOn</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ServerPwr.1#RapidOnPrimaryPSU</t>
-  </si>
-  <si>
-    <t>System.Embedded.1 ChassisPwrState.1#ChassisLEDState</t>
   </si>
   <si>
     <t>System.Embedded.1 RepositoryUpdate</t>
@@ -5430,13 +5391,13 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -5444,7 +5405,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -5452,7 +5413,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -5460,7 +5421,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -5468,7 +5429,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -5476,7 +5437,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -5484,7 +5445,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -5492,7 +5453,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -5500,7 +5461,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -5508,7 +5469,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -5516,7 +5477,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -5524,7 +5485,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -5532,7 +5493,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -5540,15 +5501,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -5556,10 +5517,10 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8510,8 +8471,8 @@
       <c r="A395" t="s">
         <v>396</v>
       </c>
-      <c r="B395" s="3" t="s">
-        <v>11</v>
+      <c r="B395" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
